--- a/target/test-classes/testData/testCases/addNewRelatives.xlsx
+++ b/target/test-classes/testData/testCases/addNewRelatives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationTest\02Project\02Git\online-vinmec-test\src\test\resources\testData\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07C7A5-A73E-4DF2-83FA-82944A95FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE313D14-A853-44B1-8F19-3A091B55CF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23604" yWindow="0" windowWidth="21600" windowHeight="12384" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Vui lòng nhập họ tên.</t>
   </si>
   <si>
-    <t>^%%#^&amp;%#&amp;&amp;^&amp;^@!%#&amp;@!^#%&amp;^!@</t>
-  </si>
-  <si>
     <t>Hòa anh</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>Số điện thoại không hợp lệ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       </t>
+  </si>
+  <si>
+    <t>^*#&amp;$(@&amp;$(@&amp;@*($</t>
   </si>
 </sst>
 </file>
@@ -512,13 +515,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
@@ -549,7 +552,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -568,8 +571,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+      <c r="A3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -589,7 +592,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -597,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -634,7 +637,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -643,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +702,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -708,18 +711,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -731,12 +734,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -745,10 +748,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +801,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -813,12 +816,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -827,10 +830,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +883,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -889,13 +892,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testData/testCases/addNewRelatives.xlsx
+++ b/target/test-classes/testData/testCases/addNewRelatives.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationTest\02Project\02Git\online-vinmec-test\src\test\resources\testData\testCases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE313D14-A853-44B1-8F19-3A091B55CF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="14560" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -19,13 +13,14 @@
     <sheet name="Failure_Birthday" sheetId="3" r:id="rId4"/>
     <sheet name="Failure_Gender" sheetId="4" r:id="rId5"/>
     <sheet name="Failure_Relationship" sheetId="5" r:id="rId6"/>
+    <sheet name="DeleteRelative" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -72,50 +67,62 @@
     <t>errMessage</t>
   </si>
   <si>
+    <t xml:space="preserve">                       </t>
+  </si>
+  <si>
+    <t>Vui lòng nhập họ tên.</t>
+  </si>
+  <si>
+    <t>^*#&amp;$(@&amp;$(@&amp;@*($</t>
+  </si>
+  <si>
+    <t>Hòa anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t>Số điện thoại không hợp lệ.</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bạch</t>
+  </si>
+  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>Vui lòng nhập họ tên.</t>
-  </si>
-  <si>
-    <t>Hòa anh</t>
+    <t>0956231459</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập ngày sinh.</t>
   </si>
   <si>
     <t>Vui lòng nhập số điện thoại.</t>
   </si>
   <si>
-    <t>Nguyễn Văn Bạch</t>
-  </si>
-  <si>
-    <t>0956231459</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập ngày sinh.</t>
-  </si>
-  <si>
     <t>Vui lòng chọn mối quan hệ.</t>
   </si>
   <si>
     <t xml:space="preserve">          </t>
   </si>
   <si>
-    <t xml:space="preserve">                   </t>
-  </si>
-  <si>
-    <t>Số điện thoại không hợp lệ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       </t>
-  </si>
-  <si>
-    <t>^*#&amp;$(@&amp;$(@&amp;@*($</t>
+    <t>successMessage</t>
+  </si>
+  <si>
+    <t>Bố</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,28 +132,351 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF202124"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,29 +484,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -434,19 +1050,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -508,25 +1124,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.859375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -552,7 +1170,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -572,7 +1190,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -592,26 +1210,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.859375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -637,7 +1257,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -646,37 +1266,39 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.859375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -702,27 +1324,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -734,12 +1356,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -748,34 +1370,36 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.859375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -801,7 +1425,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -810,18 +1434,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -830,34 +1454,36 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.859375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -883,7 +1509,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -892,17 +1518,80 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="13.7890625" customWidth="1"/>
+    <col min="5" max="5" width="17.4453125" customWidth="1"/>
+    <col min="6" max="6" width="23.6953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>